--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809886.4504886009</v>
+        <v>-812735.8726779285</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>280.2373307108178</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>166.7009723842031</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1765389701999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94719894180795</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.44420492154089</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.8433938143592</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>359.0759512913589</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>34.02048567924305</v>
+        <v>85.69522927036854</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.186862253447</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>61.68577840769118</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>145.9375346245469</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>5.171777851511403</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.27859867329965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.38272884730802</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>178.8076944857614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.2893995353468</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>215.3025979624043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1242.745275789086</v>
+        <v>1103.021993962541</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.745275789086</v>
+        <v>734.0594770221295</v>
       </c>
       <c r="D2" t="n">
-        <v>1242.745275789086</v>
+        <v>375.793778415379</v>
       </c>
       <c r="E2" t="n">
-        <v>856.9570231908419</v>
+        <v>375.793778415379</v>
       </c>
       <c r="F2" t="n">
-        <v>445.9711184012344</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2612.880806658</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2612.880806658</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.119021296092</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2359.119021296092</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2006.350366025978</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1632.884607764898</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1242.745275789086</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>304.5083130726405</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>154.3916736603047</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>154.3916736603047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>154.3916736603047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>154.3916736603047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>743.8406828867444</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>693.7648572577039</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="U7" t="n">
-        <v>404.5912469122717</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5912469122717</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5912469122717</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5912469122717</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>955.9349335397801</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="C8" t="n">
-        <v>955.9349335397801</v>
+        <v>1659.946301365515</v>
       </c>
       <c r="D8" t="n">
-        <v>597.6692349330297</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2634.840223939746</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2634.840223939746</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2381.148520684897</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>2050.085633341327</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901366</v>
+        <v>2050.085633341327</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.636752640286</v>
+        <v>2050.085633341327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1093.497420664474</v>
+        <v>1659.946301365515</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>2195.822675486408</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
         <v>2504.861470532118</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.8722721379243</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>364.9360892100174</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>364.9360892100174</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>364.9360892100174</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>364.9360892100174</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
         <v>71.81756957972706</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>539.096290169754</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>539.096290169754</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>533.8722721379243</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>533.8722721379243</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.8722721379243</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,16 +5121,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359455</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614378</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179076</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>955.2822768769995</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5893,13 +5893,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,16 +6233,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319314</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7555,19 +7555,19 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>160.4088454694715</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0368508858077</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>240.1750733575083</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>145.4685138671636</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56.72668392025426</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.55338150863764</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856724</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>38.13892827624255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.95742156328103</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>70.88187642683985</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
@@ -26326,7 +26326,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
@@ -26335,25 +26335,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258958</v>
+        <v>127713.0035258957</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682764</v>
+        <v>5677.536566682758</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977627</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614362.6058200956</v>
+        <v>-614722.688835813</v>
       </c>
       <c r="C6" t="n">
-        <v>-66995.0068137648</v>
+        <v>-66995.00681376469</v>
       </c>
       <c r="D6" t="n">
         <v>-222798.8129075597</v>
       </c>
       <c r="E6" t="n">
-        <v>-655887.4428566445</v>
+        <v>-655922.1807820802</v>
       </c>
       <c r="F6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987261</v>
       </c>
       <c r="G6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987258</v>
       </c>
       <c r="H6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987265</v>
       </c>
       <c r="I6" t="n">
-        <v>115165.2485241619</v>
+        <v>115130.510598726</v>
       </c>
       <c r="J6" t="n">
-        <v>-61257.97066843123</v>
+        <v>-61292.70859386663</v>
       </c>
       <c r="K6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987262</v>
       </c>
       <c r="L6" t="n">
-        <v>89526.25703535462</v>
+        <v>89526.25703535471</v>
       </c>
       <c r="M6" t="n">
-        <v>-15254.53567907208</v>
+        <v>-15254.53567907223</v>
       </c>
       <c r="N6" t="n">
         <v>108953.9750289865</v>
@@ -26561,7 +26561,7 @@
         <v>108953.9750289865</v>
       </c>
       <c r="P6" t="n">
-        <v>108953.9750289863</v>
+        <v>108953.9750289864</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.4965109526628</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>177.607631050595</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>261.2070929197287</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.89044784912136</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>54.70821872943611</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>191.0146197788412</v>
+        <v>139.3398761877157</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.5469794100336</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>92.967108720449</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>33.89444555739044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3512204850796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>348.9941109496813</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>89.93049555434075</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35264,7 +35264,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>312.1603990360709</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>109.7875025528271</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
